--- a/biblio.xlsx
+++ b/biblio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augus\cours-ensta\EA\Projet-EA314\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCC59DCA-85B2-42B9-AA1B-8220851E627D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EDD297-F4C5-40FC-8859-DC383D557980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8EDEE425-242E-4D0E-860D-648BE9070077}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t xml:space="preserve">Titre </t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>SDES MTE</t>
+  </si>
+  <si>
+    <t>SER</t>
+  </si>
+  <si>
+    <t>https://www.syndicat-energies-renouvelables.fr/wp-content/uploads/basedoc/panorama2022-t4-bd2.pdf</t>
+  </si>
+  <si>
+    <t>panorama 2022</t>
   </si>
 </sst>
 </file>
@@ -463,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F785115-0811-4AC1-AD7C-BEEF9AF632A6}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -557,6 +566,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{B00C315A-2FB6-42DE-979D-232C9FD4BF78}"/>
@@ -564,10 +584,11 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{A8B4182A-D2DA-41F8-B4A1-5F656D451682}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{1E3C1D56-232D-4A57-B5A3-486D24A1DB80}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{5BE6D35E-9D71-4F61-883C-B780956E4BE8}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{50126774-51F3-4252-AD61-9626E3A2BFD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>